--- a/myPack.xlsx
+++ b/myPack.xlsx
@@ -100,10 +100,10 @@
     <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Edit Account</x:t>
@@ -199,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0">
-  <x:autoFilter ref="A1:J9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
+  <x:autoFilter ref="A1:J13"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -505,7 +505,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J9"/>
+  <x:dimension ref="A1:J13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,6 +723,90 @@
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
